--- a/SYUMAI_Siyousyo.xlsx
+++ b/SYUMAI_Siyousyo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\ゲーム制作\Team Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\MYM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>あべ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いのうえ</t>
+    <t>やすはら</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>やすはら</t>
+    <t>オブジェクト（無害）</t>
+    <rPh sb="7" eb="9">
+      <t>ムガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの種類</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <rPh sb="0" eb="2">
+      <t>エンピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割れた鉛筆（仮）</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁兼床です。
+当たり判定があり、すり抜けたりはできません。
+重力を変更しても位置は変わりません。
+縦向きと横向きの2つがあります。
+長さも配置によって長かったり短かったりします。</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>タテム</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヨコム</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部当たり判定が消えた鉛筆です。
+通常状態のネリケシ君（プレイヤー）では通ることは出来ませんが割れている向きに合わせて「変形」する事で通ることが出来るようになります。</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ツウジョウジョウタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンケイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旗</t>
+    <rPh sb="0" eb="1">
+      <t>ハタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れることでそのステージをクリア出来ます。
+旗にどの方向から触れてもクリアになります。</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -49,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +229,86 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6464"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -82,15 +316,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -98,6 +586,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6464"/>
+      <color rgb="FFFF3232"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,6 +601,705 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>206625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="523875" y="2524125"/>
+          <a:ext cx="338700" cy="540000"/>
+          <a:chOff x="438150" y="2057400"/>
+          <a:chExt cx="338700" cy="540000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="2057400"/>
+            <a:ext cx="216000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="704850" y="2057400"/>
+            <a:ext cx="72000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="438150" y="2057400"/>
+            <a:ext cx="72000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200240</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1733550" y="2618390"/>
+          <a:ext cx="338700" cy="540000"/>
+          <a:chOff x="438150" y="2057400"/>
+          <a:chExt cx="338700" cy="540000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="495300" y="2057400"/>
+            <a:ext cx="216000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="704850" y="2057400"/>
+            <a:ext cx="72000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="438150" y="2057400"/>
+            <a:ext cx="72000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="523875" y="4867275"/>
+          <a:ext cx="220200" cy="540000"/>
+          <a:chOff x="523875" y="4867275"/>
+          <a:chExt cx="220200" cy="540000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="600075" y="4867275"/>
+            <a:ext cx="144000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="523875" y="4867275"/>
+            <a:ext cx="72000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262812</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>116356</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145259</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1793163" y="5003416"/>
+          <a:ext cx="221842" cy="539344"/>
+          <a:chOff x="523875" y="4867275"/>
+          <a:chExt cx="220200" cy="540000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="600075" y="4867275"/>
+            <a:ext cx="144000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="523875" y="4867275"/>
+            <a:ext cx="72000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>308742</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>269328</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: せん孔テープ 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="991914" y="7442639"/>
+          <a:ext cx="643759" cy="426983"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedTape">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>269592</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>315311</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952764" y="7455776"/>
+          <a:ext cx="45719" cy="1136431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,20 +1610,422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:H38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D27"/>
+    <mergeCell ref="E17:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A30:D38"/>
+    <mergeCell ref="E28:H38"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="A8:D16"/>
+    <mergeCell ref="E6:H16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -438,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -446,7 +2041,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SYUMAI_Siyousyo.xlsx
+++ b/SYUMAI_Siyousyo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\ゲーム制作\Team Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\MYM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル画面" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>オブジェクト（無害）</t>
     <rPh sb="7" eb="9">
@@ -198,13 +198,6 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ数：８</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -823,12 +816,23 @@
 一度クリアしたステージでのみ表示します。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ステージ数：12</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あべ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +908,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -943,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1294,83 +1315,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1382,13 +1565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1398,6 +1575,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1466,242 +1691,80 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1710,6 +1773,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1721,9 +1796,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,18 +1804,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1763,6 +1823,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,16 +1841,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1793,19 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,6 +1867,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1825,6 +1885,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,1744 +1922,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="342900" y="771525"/>
-          <a:ext cx="6048375" cy="3638550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="3305174"/>
-          <a:ext cx="1733550" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>プレイ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5534025" y="2047874"/>
-          <a:ext cx="2714625" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -49529"/>
-            <a:gd name="adj2" fmla="val 101042"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>Enter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>キーを押すと</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ステージセレクト画面へ移行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171451" y="542925"/>
-          <a:ext cx="6477000" cy="3457575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>81383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>208365</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476251" y="795758"/>
-          <a:ext cx="5904314" cy="2976141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942976" y="1152524"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>58644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>370431</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="右矢印 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6010275" y="1963644"/>
-          <a:ext cx="532356" cy="665255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6886576" y="542925"/>
-          <a:ext cx="6477000" cy="3457575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>81383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>65490</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7191376" y="795758"/>
-          <a:ext cx="5904314" cy="2976141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>627606</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="右矢印 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6953250" y="1973169"/>
-          <a:ext cx="532356" cy="665255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1826141" cy="435697"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="485775" y="742950"/>
-          <a:ext cx="1826141" cy="435697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ステージセレクト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1826141" cy="435697"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7229475" y="742950"/>
-          <a:ext cx="1826141" cy="435697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ステージセレクト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371851" y="2457449"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942976" y="2438399"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371851" y="1152524"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7915276" y="1114424"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10344151" y="2419349"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7915276" y="2400299"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10344151" y="1114424"/>
-          <a:ext cx="2228850" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104901" y="4829174"/>
-          <a:ext cx="2524124" cy="1990726"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="下矢印 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1924050" y="4581525"/>
-          <a:ext cx="752475" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF3232"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="四角形吹き出し 61"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5010151" y="28574"/>
-          <a:ext cx="2057400" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 63307"/>
-            <a:gd name="adj2" fmla="val 199539"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>左矢印キーで画面移動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="四角形吹き出し 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5343525" y="3876675"/>
-          <a:ext cx="2143125" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -10488"/>
-            <a:gd name="adj2" fmla="val -210417"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>左矢印キーで画面移動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18477,7 +16811,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19176,7 +17510,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20368,7 +18702,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22861,35 +21195,1368 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+    </row>
+    <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="181"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+    </row>
+    <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="43"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.4">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+    </row>
+    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="183"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="182"/>
+      <c r="L55" s="182"/>
+      <c r="M55" s="182"/>
+      <c r="N55" s="182"/>
+      <c r="O55" s="182"/>
+    </row>
+    <row r="56" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="183"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="181"/>
+      <c r="F56" s="181"/>
+      <c r="G56" s="181"/>
+      <c r="H56" s="181"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="182"/>
+      <c r="K56" s="182"/>
+      <c r="L56" s="182"/>
+      <c r="M56" s="182"/>
+      <c r="N56" s="182"/>
+      <c r="O56" s="182"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22898,7 +22565,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22912,8 +22579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView topLeftCell="G54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22924,1529 +22591,1529 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="58" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="73" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="73" t="s">
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="79" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="59" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="59" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="80" t="s">
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="59" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="59" t="s">
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="80" t="s">
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="85"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="86"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="88"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="86"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="86"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="59" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="71"/>
+      <c r="I32" s="72"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="75"/>
+      <c r="I41" s="76"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="48"/>
+      <c r="I57" s="49"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="48"/>
+      <c r="I65" s="49"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="19"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="19"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="71"/>
+      <c r="I73" s="72"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="19"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="51"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="85"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="98"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="98"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="103"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="91"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="109"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="86"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="56"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="86"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="56"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="86"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="86"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="86"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="89"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="91"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="81"/>
-      <c r="I49" s="82"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="83"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="85"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="86"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="88"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="86"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="88"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" s="86"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="88"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="86"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="88"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="86"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="88"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="89"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="91"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="82"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="83"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="86"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="88"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="86"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="88"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="86"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="88"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="86"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="88"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="86"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="88"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="88"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="89"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="91"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="81"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="81"/>
-      <c r="I65" s="82"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="83"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="85"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="86"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="88"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="86"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="88"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="86"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="88"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="86"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="88"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="86"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="88"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="89"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="91"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="60"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="60"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="26"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="83"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="85"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="86"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="88"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="86"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="88"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="86"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="88"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="86"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="88"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="86"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="88"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="86"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="101" t="s">
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="52"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="88"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="86"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="86"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="88"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="89"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="90"/>
-      <c r="I82" s="91"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="60"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="61"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="116" t="s">
+      <c r="B85" s="82"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="36"/>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="117"/>
-      <c r="C85" s="118"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="119"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="120"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="83"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="101" t="s">
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="78"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="86"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="86"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="86"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="86"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
+      <c r="I91" s="86"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="89"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="109"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="109"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="110"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" s="86"/>
-      <c r="B87" s="87"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="122"/>
-      <c r="I87" s="123"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="86"/>
-      <c r="B88" s="87"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="121"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="122"/>
-      <c r="H88" s="122"/>
-      <c r="I88" s="123"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" s="86"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="121"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-      <c r="H89" s="122"/>
-      <c r="I89" s="123"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" s="86"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="121"/>
-      <c r="E90" s="122"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="122"/>
-      <c r="H90" s="122"/>
-      <c r="I90" s="123"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" s="86"/>
-      <c r="B91" s="87"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="121"/>
-      <c r="E91" s="122"/>
-      <c r="F91" s="122"/>
-      <c r="G91" s="122"/>
-      <c r="H91" s="122"/>
-      <c r="I91" s="123"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" s="89"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="125"/>
-      <c r="F92" s="125"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="126"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" s="127" t="s">
+      <c r="B93" s="63"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="102"/>
-      <c r="C93" s="128"/>
-      <c r="D93" s="59" t="s">
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E93" s="60"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="80" t="s">
+      <c r="H93" s="48"/>
+      <c r="I93" s="49"/>
+    </row>
+    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="19"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="19"/>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="22"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H93" s="81"/>
-      <c r="I93" s="82"/>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="85"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" s="86"/>
-      <c r="B95" s="87"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="88"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="86"/>
-      <c r="B96" s="87"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="86"/>
-      <c r="H96" s="87"/>
-      <c r="I96" s="88"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" s="86"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="86"/>
-      <c r="H97" s="87"/>
-      <c r="I97" s="88"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" s="86"/>
-      <c r="B98" s="87"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="87"/>
-      <c r="I98" s="88"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="86"/>
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="130"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="86"/>
-      <c r="H99" s="87"/>
-      <c r="I99" s="88"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" s="86"/>
-      <c r="B100" s="87"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="91"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="106" t="s">
+      <c r="B101" s="65"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="107"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="106" t="s">
+      <c r="E101" s="65"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="107"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="80" t="s">
+      <c r="H101" s="48"/>
+      <c r="I101" s="49"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="90"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="19"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="17"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="19"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="17"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="22"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H101" s="81"/>
-      <c r="I101" s="82"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" s="86"/>
-      <c r="B102" s="87"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="127"/>
-      <c r="E102" s="102"/>
-      <c r="F102" s="128"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="84"/>
-      <c r="I102" s="85"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A103" s="86"/>
-      <c r="B103" s="87"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="131"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="87"/>
-      <c r="I103" s="88"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A104" s="86"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="114"/>
-      <c r="F104" s="131"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="87"/>
-      <c r="I104" s="88"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A105" s="86"/>
-      <c r="B105" s="87"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="114"/>
-      <c r="F105" s="131"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="87"/>
-      <c r="I105" s="88"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" s="86"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="113"/>
-      <c r="E106" s="114"/>
-      <c r="F106" s="131"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="87"/>
-      <c r="I106" s="88"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107" s="86"/>
-      <c r="B107" s="87"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="113"/>
-      <c r="E107" s="114"/>
-      <c r="F107" s="131"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="87"/>
-      <c r="I107" s="88"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A108" s="89"/>
-      <c r="B108" s="90"/>
-      <c r="C108" s="91"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="107"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="90"/>
-      <c r="I108" s="91"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A109" s="59" t="s">
+      <c r="B109" s="51"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="60"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="59" t="s">
+      <c r="E109" s="51"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E109" s="60"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="80" t="s">
+      <c r="H109" s="48"/>
+      <c r="I109" s="49"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="90"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="17"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="19"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="19"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="19"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="19"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="22"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="H109" s="81"/>
-      <c r="I109" s="82"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A110" s="83"/>
-      <c r="B110" s="84"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="102"/>
-      <c r="F110" s="128"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="84"/>
-      <c r="I110" s="85"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A111" s="86"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="113"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="131"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="87"/>
-      <c r="I111" s="88"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A112" s="86"/>
-      <c r="B112" s="87"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="113"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="131"/>
-      <c r="G112" s="86"/>
-      <c r="H112" s="87"/>
-      <c r="I112" s="88"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A113" s="86"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="114"/>
-      <c r="F113" s="131"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="87"/>
-      <c r="I113" s="88"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A114" s="86"/>
-      <c r="B114" s="87"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="114"/>
-      <c r="F114" s="131"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="87"/>
-      <c r="I114" s="88"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A115" s="86"/>
-      <c r="B115" s="87"/>
-      <c r="C115" s="88"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="114"/>
-      <c r="F115" s="131"/>
-      <c r="G115" s="86"/>
-      <c r="H115" s="87"/>
-      <c r="I115" s="88"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A116" s="89"/>
-      <c r="B116" s="90"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="106"/>
-      <c r="E116" s="107"/>
-      <c r="F116" s="108"/>
-      <c r="G116" s="89"/>
-      <c r="H116" s="90"/>
-      <c r="I116" s="91"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A117" s="127" t="s">
+      <c r="B117" s="63"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="102"/>
-      <c r="C117" s="128"/>
-      <c r="D117" s="127" t="s">
+      <c r="E117" s="63"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E117" s="102"/>
-      <c r="F117" s="128"/>
-      <c r="G117" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="H117" s="81"/>
-      <c r="I117" s="82"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="49"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A118" s="83"/>
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="83"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="84"/>
-      <c r="I118" s="85"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="16"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A119" s="86"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="86"/>
-      <c r="E119" s="87"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="87"/>
-      <c r="I119" s="88"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A120" s="86"/>
-      <c r="B120" s="87"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="87"/>
-      <c r="F120" s="88"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="87"/>
-      <c r="I120" s="88"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A121" s="86"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="88"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="87"/>
-      <c r="I121" s="88"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A122" s="86"/>
-      <c r="B122" s="87"/>
-      <c r="C122" s="88"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="87"/>
-      <c r="F122" s="88"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="87"/>
-      <c r="I122" s="88"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A123" s="86"/>
-      <c r="B123" s="87"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="87"/>
-      <c r="F123" s="88"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="87"/>
-      <c r="I123" s="88"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A124" s="89"/>
-      <c r="B124" s="90"/>
-      <c r="C124" s="91"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="91"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="91"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="22"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A125" s="132"/>
-      <c r="B125" s="132"/>
-      <c r="C125" s="132"/>
-      <c r="D125" s="132"/>
-      <c r="E125" s="132"/>
-      <c r="F125" s="132"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A126" s="133"/>
-      <c r="B126" s="133"/>
-      <c r="C126" s="133"/>
-      <c r="D126" s="133"/>
-      <c r="E126" s="133"/>
-      <c r="F126" s="133"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A127" s="133"/>
-      <c r="B127" s="133"/>
-      <c r="C127" s="133"/>
-      <c r="D127" s="133"/>
-      <c r="E127" s="133"/>
-      <c r="F127" s="133"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A128" s="133"/>
-      <c r="B128" s="133"/>
-      <c r="C128" s="133"/>
-      <c r="D128" s="133"/>
-      <c r="E128" s="133"/>
-      <c r="F128" s="133"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="133"/>
-      <c r="B129" s="133"/>
-      <c r="C129" s="133"/>
-      <c r="D129" s="133"/>
-      <c r="E129" s="133"/>
-      <c r="F129" s="133"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="133"/>
-      <c r="B130" s="133"/>
-      <c r="C130" s="133"/>
-      <c r="D130" s="133"/>
-      <c r="E130" s="133"/>
-      <c r="F130" s="133"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="133"/>
-      <c r="B131" s="133"/>
-      <c r="C131" s="133"/>
-      <c r="D131" s="133"/>
-      <c r="E131" s="133"/>
-      <c r="F131" s="133"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="133"/>
-      <c r="B132" s="133"/>
-      <c r="C132" s="133"/>
-      <c r="D132" s="133"/>
-      <c r="E132" s="133"/>
-      <c r="F132" s="133"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="133"/>
-      <c r="B133" s="133"/>
-      <c r="C133" s="133"/>
-      <c r="D133" s="133"/>
-      <c r="E133" s="133"/>
-      <c r="F133" s="133"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="40"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="133"/>
-      <c r="B134" s="133"/>
-      <c r="C134" s="133"/>
-      <c r="D134" s="133"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="133"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="40"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="133"/>
-      <c r="B135" s="133"/>
-      <c r="C135" s="133"/>
-      <c r="D135" s="133"/>
-      <c r="E135" s="133"/>
-      <c r="F135" s="133"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -24486,16 +24153,16 @@
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:F23"/>
@@ -24519,400 +24186,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="117"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9" t="s">
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="117"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="120"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="9" t="s">
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="117"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="120"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="120"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="120"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="120"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="120"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -24948,588 +24615,588 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="140"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="134"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137" t="s">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="149"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="143"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="143"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="152"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="143"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="143"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="152"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="143"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="152"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="143"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="143"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="152"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="143"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="152"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="140"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="143"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="140"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="143"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="140"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="143"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="140"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="140"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="140"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="140"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="140"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
-      <c r="L11" s="144"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="145"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="151" t="s">
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="164"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="159"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="165"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="168"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="165"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="169"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="165"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="169"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="165"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="169"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="165"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="169"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="165"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="169"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="165"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="169"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="165"/>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="170"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="156"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="157"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="160"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="161"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="160"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="162"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="160"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="162"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="160"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="162"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="160"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="162"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="160"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="162"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="160"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="162"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="160"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="163"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="166"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="151" t="s">
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="167" t="s">
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="164"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="159"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="165"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="168"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="165"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="169"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="165"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="169"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="165"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="169"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="165"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="169"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="165"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="169"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="165"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="169"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="165"/>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="170"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="167"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="156"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="157"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="160"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="161"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="160"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="162"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="160"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="162"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="160"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="162"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="160"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="162"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="160"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="162"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="160"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="162"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="160"/>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="163"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="166"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="151" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="167" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="164"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="157"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="160"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="165"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="161"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="160"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="165"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="162"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="160"/>
+      <c r="A36" s="169"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="165"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="162"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="160"/>
+      <c r="A37" s="169"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="165"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="162"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="160"/>
+      <c r="A38" s="169"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="165"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="162"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="160"/>
+      <c r="A39" s="169"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="165"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="162"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="160"/>
+      <c r="A40" s="169"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="165"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="162"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="160"/>
+      <c r="A41" s="169"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="165"/>
     </row>
     <row r="42" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="163"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="166"/>
+      <c r="A42" s="170"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="167"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="169"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="156"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="164"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="157"/>
-      <c r="B44" s="158"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="160"/>
+      <c r="A44" s="159"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="165"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="161"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="160"/>
+      <c r="A45" s="168"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="165"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="162"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="160"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="165"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="162"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="160"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="165"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="162"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="160"/>
+      <c r="A48" s="169"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="165"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="162"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="160"/>
+      <c r="A49" s="169"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="165"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="162"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="160"/>
+      <c r="A50" s="169"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="165"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="162"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="160"/>
+      <c r="A51" s="169"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="165"/>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="163"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="166"/>
+      <c r="A52" s="170"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="174"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -25573,569 +25240,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="176" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="178"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="169"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="165"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="169"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="165"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="169"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="165"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="169"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="165"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="169"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="165"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="169"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="165"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="169"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="165"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="169"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="165"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="169"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="165"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="169"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="165"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="169"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="165"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="169"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="165"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="170"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="173"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="162"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="160"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="162"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="160"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="162"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="160"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="162"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="160"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="162"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="160"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="162"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="160"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="162"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="160"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="162"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="160"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="162"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="160"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="162"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="160"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="162"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="160"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="162"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="160"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="166"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="174" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="164"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="169"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="165"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="169"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="165"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="170"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="162"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="160"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="162"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="160"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="163"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="166"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="151" t="s">
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="167" t="s">
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="164"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="165"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="168"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="165"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="169"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="165"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="169"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="165"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="169"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="165"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="169"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="165"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="169"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="165"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="169"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="165"/>
+    </row>
+    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="170"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="167"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="156"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="157"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="160"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="161"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="160"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="162"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="160"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="162"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="160"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="162"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="160"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="162"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="160"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="162"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="160"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="162"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="160"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="163"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="166"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="151" t="s">
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="167" t="s">
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="164"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="165"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="168"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="165"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="169"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="165"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="169"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="165"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="169"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="165"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="169"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="165"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="169"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="165"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="169"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="165"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="170"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="167"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="157"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="160"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="161"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="160"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="162"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="160"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="162"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="160"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="162"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="160"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="162"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="160"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="162"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="160"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="162"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="160"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="163"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="166"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="151" t="s">
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="156"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="164"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="157"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="160"/>
+      <c r="A42" s="159"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="165"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="161"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="160"/>
+      <c r="A43" s="168"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="165"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="162"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="160"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="165"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="162"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="160"/>
+      <c r="A45" s="169"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="165"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="162"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="160"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="165"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="162"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="160"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="165"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="162"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="160"/>
+      <c r="A48" s="169"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="165"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="162"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="160"/>
+      <c r="A49" s="169"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="165"/>
     </row>
     <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="163"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="166"/>
+      <c r="A50" s="170"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="174"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="12">
